--- a/heuristic_results.xlsx
+++ b/heuristic_results.xlsx
@@ -5,15 +5,18 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/v/Dropbox/redqueen/AIND-Planning/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/v/Dropbox/redqueen/planningAI/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="14400" windowHeight="16700" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="23140" windowHeight="16680" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$1</definedName>
+  </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="43">
   <si>
     <t>Problem</t>
   </si>
@@ -51,25 +54,6 @@
   </si>
   <si>
     <t>astar_search with h_pg_levelsum</t>
-  </si>
-  <si>
-    <t>Load(C1, P1, SFO)
-Fly(P1, SFO, JFK)
-Load(C2, P2, JFK)
-Fly(P2, JFK, SFO)
-Unload(C1, P1, JFK)
-Unload(C2, P2, SFO)</t>
-  </si>
-  <si>
-    <t>Load(C1, P1, SFO)
-Fly(P1, SFO, JFK)
-Load(C2, P2, JFK)
-Fly(P2, JFK, SFO)
-Load(C3, P3, ATL)
-Fly(P3, ATL, SFO)
-Unload(C3, P3, SFO)
-Unload(C2, P2, SFO)
-Unload(C1, P1, JFK)</t>
   </si>
   <si>
     <t>breadth_first_search</t>
@@ -1208,12 +1192,21 @@
 Unload(C4, P1, SFO)
 Unload(C2, P1, SFO)</t>
   </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Uninformed</t>
+  </si>
+  <si>
+    <t>Informed</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1227,11 +1220,6 @@
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="13"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -1240,6 +1228,22 @@
       <sz val="13"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1259,16 +1263,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1276,7 +1287,15 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="9">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1552,19 +1571,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB1000"/>
+  <dimension ref="A1:AB997"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="33.1640625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="10.83203125" style="4"/>
+    <col min="3" max="3" width="33.1640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="10.83203125" style="2"/>
+    <col min="9" max="9" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1572,7 +1592,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -1592,860 +1612,946 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J1" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="1"/>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="1">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="E2" s="1">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="F2" s="1">
-        <v>30</v>
+        <v>180</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="2">
+        <v>10</v>
+      </c>
+      <c r="H2" s="1">
         <v>6</v>
       </c>
       <c r="I2" s="1">
-        <v>6.5283589360000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>7.5493678999999994E-2</v>
+      </c>
+      <c r="J2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="1"/>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" s="1">
-        <v>86</v>
+        <v>3343</v>
       </c>
       <c r="E3" s="1">
-        <v>88</v>
+        <v>4609</v>
       </c>
       <c r="F3" s="1">
-        <v>841</v>
+        <v>30509</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H3" s="1">
         <v>9</v>
       </c>
       <c r="I3" s="1">
-        <v>1218.9781230000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>50.442685470000001</v>
+      </c>
+      <c r="J3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="1"/>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
       <c r="C4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="1" t="e">
+        <v>9</v>
+      </c>
+      <c r="D4" s="1">
+        <v>8062</v>
+      </c>
+      <c r="E4" s="1">
+        <v>11196</v>
+      </c>
+      <c r="F4" s="1">
+        <v>64308</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="1">
+        <v>12</v>
+      </c>
+      <c r="I4" s="1">
+        <v>137.474141</v>
+      </c>
+      <c r="J4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1458</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1459</v>
+      </c>
+      <c r="F5" s="1">
+        <v>5960</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="1">
+        <v>6</v>
+      </c>
+      <c r="I5" s="1">
+        <v>2.0058885649999998</v>
+      </c>
+      <c r="J5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E6" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F6" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G6" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H6" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I6" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1">
+        <v>2</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E7" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F7" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G7" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H7" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I7" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>1</v>
+      </c>
+      <c r="B8" s="1">
+        <v>3</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="1">
+        <v>21</v>
+      </c>
+      <c r="E8" s="1">
+        <v>22</v>
+      </c>
+      <c r="F8" s="1">
+        <v>84</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="1">
+        <v>20</v>
+      </c>
+      <c r="I8" s="1">
+        <v>2.3750070000000002E-2</v>
+      </c>
+      <c r="J8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>3</v>
+      </c>
+      <c r="B9" s="1">
+        <v>3</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1292</v>
+      </c>
+      <c r="E9" s="1">
+        <v>12983</v>
+      </c>
+      <c r="F9" s="1">
+        <v>5744</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="1">
+        <v>875</v>
+      </c>
+      <c r="I9" s="1">
+        <v>7.7894174119999997</v>
+      </c>
+      <c r="J9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>2</v>
+      </c>
+      <c r="B10" s="1">
+        <v>3</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="1">
+        <v>624</v>
+      </c>
+      <c r="E10" s="1">
+        <v>625</v>
+      </c>
+      <c r="F10" s="1">
+        <v>5602</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="1">
+        <v>875</v>
+      </c>
+      <c r="I10" s="3">
+        <v>8.2550880630005796</v>
+      </c>
+      <c r="J10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>1</v>
+      </c>
+      <c r="B11" s="1">
+        <v>4</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="1">
+        <v>101</v>
+      </c>
+      <c r="E11" s="1">
+        <v>271</v>
+      </c>
+      <c r="F11" s="1">
+        <v>414</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="1">
+        <v>50</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0.188067071998375</v>
+      </c>
+      <c r="J11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>2</v>
+      </c>
+      <c r="B12" s="1">
+        <v>4</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="1" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="E4" s="1" t="e">
+      <c r="E12" s="1" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="F4" s="1" t="e">
+      <c r="F12" s="1" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="G4" s="1" t="e">
+      <c r="G12" s="1" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="H4" s="1" t="e">
+      <c r="H12" s="1" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="I4" s="1" t="e">
+      <c r="I12" s="1" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="1">
-        <v>43</v>
-      </c>
-      <c r="E5" s="1">
-        <v>56</v>
-      </c>
-      <c r="F5" s="1">
-        <v>180</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" s="1">
-        <v>6</v>
-      </c>
-      <c r="I5" s="1">
-        <v>7.5493678999999994E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>2</v>
-      </c>
-      <c r="B6" s="1">
-        <v>1</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="1">
-        <v>3343</v>
-      </c>
-      <c r="E6" s="1">
-        <v>4609</v>
-      </c>
-      <c r="F6" s="1">
-        <v>30509</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="2">
-        <v>9</v>
-      </c>
-      <c r="I6" s="1">
-        <v>50.442685470000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>3</v>
-      </c>
-      <c r="B7" s="1">
-        <v>1</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="1">
-        <v>8062</v>
-      </c>
-      <c r="E7" s="1">
-        <v>11196</v>
-      </c>
-      <c r="F7" s="1">
-        <v>64308</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" s="1">
-        <v>12</v>
-      </c>
-      <c r="I7" s="1">
-        <v>137.474141</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>1</v>
-      </c>
-      <c r="B8" s="1">
-        <v>2</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="1">
-        <v>1458</v>
-      </c>
-      <c r="E8" s="1">
-        <v>1459</v>
-      </c>
-      <c r="F8" s="1">
-        <v>5960</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" s="1">
-        <v>6</v>
-      </c>
-      <c r="I8" s="1">
-        <v>2.0058885649999998</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>2</v>
-      </c>
-      <c r="B9" s="1">
-        <v>2</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E9" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F9" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G9" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H9" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I9" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>3</v>
-      </c>
-      <c r="B10" s="1">
-        <v>2</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E10" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F10" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G10" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H10" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I10" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <v>1</v>
-      </c>
-      <c r="B11" s="1">
-        <v>3</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="1">
-        <v>21</v>
-      </c>
-      <c r="E11" s="1">
-        <v>22</v>
-      </c>
-      <c r="F11" s="1">
-        <v>84</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11" s="1">
-        <v>20</v>
-      </c>
-      <c r="I11" s="1">
-        <v>2.3750070000000002E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
-        <v>2</v>
-      </c>
-      <c r="B12" s="1">
-        <v>3</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="1">
-        <v>624</v>
-      </c>
-      <c r="E12" s="1">
-        <v>625</v>
-      </c>
-      <c r="F12" s="1">
-        <v>5602</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H12" s="1">
-        <v>875</v>
-      </c>
-      <c r="I12" s="4">
-        <v>8.2550880630005796</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>3</v>
       </c>
       <c r="B13" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="1">
-        <v>1292</v>
-      </c>
-      <c r="E13" s="1">
-        <v>12983</v>
-      </c>
-      <c r="F13" s="1">
-        <v>5744</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H13" s="1">
-        <v>875</v>
-      </c>
-      <c r="I13" s="1">
-        <v>7.7894174119999997</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+      <c r="D13" s="1" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E13" s="1" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F13" s="1" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G13" s="1" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H13" s="1" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I13" s="1" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>1</v>
       </c>
       <c r="B14" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D14" s="1">
-        <v>101</v>
+        <v>55</v>
       </c>
       <c r="E14" s="1">
-        <v>271</v>
+        <v>57</v>
       </c>
       <c r="F14" s="1">
-        <v>414</v>
+        <v>224</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>21</v>
       </c>
       <c r="H14" s="1">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="I14" s="1">
-        <v>0.188067071998375</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>0.17346986600023201</v>
+      </c>
+      <c r="J14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>2</v>
       </c>
       <c r="B15" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="1" t="e">
+      <c r="D15" s="1">
+        <v>4853</v>
+      </c>
+      <c r="E15" s="1">
+        <v>4855</v>
+      </c>
+      <c r="F15" s="1">
+        <v>44041</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H15" s="1">
+        <v>9</v>
+      </c>
+      <c r="I15" s="1">
+        <v>123.756114404</v>
+      </c>
+      <c r="J15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>3</v>
+      </c>
+      <c r="B16" s="1">
+        <v>5</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="1">
+        <v>11482</v>
+      </c>
+      <c r="E16" s="1">
+        <v>11484</v>
+      </c>
+      <c r="F16" s="1">
+        <v>85785</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H16" s="1">
+        <v>12</v>
+      </c>
+      <c r="I16" s="1">
+        <v>414.748540032996</v>
+      </c>
+      <c r="J16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>1</v>
+      </c>
+      <c r="B17" s="1">
+        <v>6</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="1">
+        <v>4429</v>
+      </c>
+      <c r="E17" s="1">
+        <v>4230</v>
+      </c>
+      <c r="F17" s="1">
+        <v>17023</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H17" s="1">
+        <v>6</v>
+      </c>
+      <c r="I17" s="1">
+        <v>6.7749598459995397</v>
+      </c>
+      <c r="J17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>2</v>
+      </c>
+      <c r="B18" s="1">
+        <v>6</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="1" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="E15" s="1" t="e">
+      <c r="E18" s="1" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="F15" s="1" t="e">
+      <c r="F18" s="1" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="G15" s="1" t="e">
+      <c r="G18" s="1" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="H15" s="1" t="e">
+      <c r="H18" s="1" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="I15" s="1" t="e">
+      <c r="I18" s="1" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
+      <c r="J18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
         <v>3</v>
       </c>
-      <c r="B16" s="1">
-        <v>4</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" s="1" t="e">
+      <c r="B19" s="1">
+        <v>6</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="1" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="E16" s="1" t="e">
+      <c r="E19" s="1" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="F16" s="1" t="e">
+      <c r="F19" s="1" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="G16" s="1" t="e">
+      <c r="G19" s="1" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="H16" s="1" t="e">
+      <c r="H19" s="1" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="I16" s="1" t="e">
+      <c r="I19" s="1" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="17" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
-        <v>1</v>
-      </c>
-      <c r="B17" s="1">
-        <v>5</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" s="1">
-        <v>55</v>
-      </c>
-      <c r="E17" s="1">
-        <v>57</v>
-      </c>
-      <c r="F17" s="1">
-        <v>224</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H17" s="1">
-        <v>6</v>
-      </c>
-      <c r="I17" s="1">
-        <v>0.17346986600023201</v>
-      </c>
-    </row>
-    <row r="18" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
-        <v>2</v>
-      </c>
-      <c r="B18" s="1">
-        <v>5</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" s="1">
-        <v>4853</v>
-      </c>
-      <c r="E18" s="1">
-        <v>4855</v>
-      </c>
-      <c r="F18" s="1">
-        <v>44041</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="H18" s="1">
-        <v>9</v>
-      </c>
-      <c r="I18" s="1">
-        <v>123.756114404</v>
-      </c>
-    </row>
-    <row r="19" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
-        <v>3</v>
-      </c>
-      <c r="B19" s="1">
-        <v>5</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D19" s="1">
-        <v>11482</v>
-      </c>
-      <c r="E19" s="1">
-        <v>11484</v>
-      </c>
-      <c r="F19" s="1">
-        <v>85785</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H19" s="1">
-        <v>12</v>
-      </c>
-      <c r="I19" s="1">
-        <v>414.748540032996</v>
-      </c>
-    </row>
-    <row r="20" spans="1:28" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>1</v>
       </c>
       <c r="B20" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" s="1">
-        <v>4429</v>
+        <v>7</v>
       </c>
       <c r="E20" s="1">
-        <v>4230</v>
+        <v>9</v>
       </c>
       <c r="F20" s="1">
-        <v>17023</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="H20" s="1">
         <v>6</v>
       </c>
-      <c r="I20" s="1">
-        <v>6.7749598459995397</v>
-      </c>
-    </row>
-    <row r="21" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="I20">
+        <v>5.9992106995195998E-2</v>
+      </c>
+      <c r="J20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B21" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" s="1" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E21" s="1" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F21" s="1" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G21" s="1" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H21" s="1" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I21" s="1" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
+        <v>27</v>
+      </c>
+      <c r="D21" s="1">
+        <v>907</v>
+      </c>
+      <c r="E21" s="1">
+        <v>909</v>
+      </c>
+      <c r="F21" s="1">
+        <v>5581</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H21" s="1">
+        <v>19</v>
+      </c>
+      <c r="I21" s="1">
+        <v>8.3439213500023399</v>
+      </c>
+      <c r="J21" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:28" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B22" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" s="1" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E22" s="1" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F22" s="1" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G22" s="1" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H22" s="1" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I22" s="1" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="23" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+      <c r="D22" s="1">
+        <v>998</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1000</v>
+      </c>
+      <c r="F22" s="1">
+        <v>8982</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H22" s="1">
+        <v>21</v>
+      </c>
+      <c r="I22" s="1">
+        <v>19.391067008997101</v>
+      </c>
+      <c r="J22" t="s">
+        <v>41</v>
+      </c>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1"/>
+      <c r="U22" s="1"/>
+      <c r="V22" s="1"/>
+      <c r="W22" s="1"/>
+      <c r="X22" s="1"/>
+      <c r="Y22" s="1"/>
+      <c r="Z22" s="1"/>
+      <c r="AA22" s="1"/>
+      <c r="AB22" s="1"/>
+    </row>
+    <row r="23" spans="1:28" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>1</v>
       </c>
       <c r="B23" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D23" s="1">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="E23" s="1">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="F23" s="1">
-        <v>28</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>30</v>
+        <v>224</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="H23" s="1">
         <v>6</v>
       </c>
-      <c r="I23">
-        <v>5.9992106995195998E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I23" s="1">
+        <v>8.5654315000283504E-2</v>
+      </c>
+      <c r="J23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>2</v>
       </c>
       <c r="B24" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D24" s="1">
-        <v>998</v>
+        <v>4853</v>
       </c>
       <c r="E24" s="1">
-        <v>1000</v>
+        <v>4855</v>
       </c>
       <c r="F24" s="1">
-        <v>8982</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>31</v>
+        <v>44041</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="H24" s="1">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="I24" s="1">
-        <v>19.391067008997101</v>
-      </c>
-    </row>
-    <row r="25" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+        <v>134.177821070996</v>
+      </c>
+      <c r="J24" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>3</v>
       </c>
       <c r="B25" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D25" s="1">
-        <v>907</v>
+        <v>11482</v>
       </c>
       <c r="E25" s="1">
-        <v>909</v>
+        <v>11484</v>
       </c>
       <c r="F25" s="1">
-        <v>5581</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>32</v>
+        <v>85785</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="H25" s="1">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="I25" s="1">
-        <v>8.3439213500023399</v>
-      </c>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
-      <c r="P25" s="1"/>
-      <c r="Q25" s="1"/>
-      <c r="R25" s="1"/>
-      <c r="S25" s="1"/>
-      <c r="T25" s="1"/>
-      <c r="U25" s="1"/>
-      <c r="V25" s="1"/>
-      <c r="W25" s="1"/>
-      <c r="X25" s="1"/>
-      <c r="Y25" s="1"/>
-      <c r="Z25" s="1"/>
-      <c r="AA25" s="1"/>
-      <c r="AB25" s="1"/>
-    </row>
-    <row r="26" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+        <v>506.585787793002</v>
+      </c>
+      <c r="J25" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>1</v>
       </c>
       <c r="B26" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D26" s="1">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="E26" s="1">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="F26" s="1">
-        <v>224</v>
-      </c>
-      <c r="G26" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="G26" s="5" t="s">
         <v>34</v>
       </c>
       <c r="H26" s="1">
         <v>6</v>
       </c>
       <c r="I26" s="1">
-        <v>8.5654315000283504E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+        <v>0.13176360299985301</v>
+      </c>
+      <c r="J26" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>2</v>
       </c>
       <c r="B27" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D27" s="1">
-        <v>4853</v>
+        <v>1506</v>
       </c>
       <c r="E27" s="1">
-        <v>4855</v>
+        <v>1508</v>
       </c>
       <c r="F27" s="1">
-        <v>44041</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>24</v>
+        <v>13820</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="H27" s="1">
         <v>9</v>
       </c>
       <c r="I27" s="1">
-        <v>134.177821070996</v>
-      </c>
-    </row>
-    <row r="28" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+        <v>43.813711399998198</v>
+      </c>
+      <c r="J27" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>3</v>
       </c>
       <c r="B28" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D28" s="1">
-        <v>11482</v>
+        <v>2494</v>
       </c>
       <c r="E28" s="1">
-        <v>11484</v>
+        <v>2496</v>
       </c>
       <c r="F28" s="1">
-        <v>85785</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>25</v>
+        <v>19532</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="H28" s="1">
         <v>12</v>
       </c>
       <c r="I28" s="1">
-        <v>506.585787793002</v>
-      </c>
-    </row>
-    <row r="29" spans="1:28" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+        <v>72.079045512000405</v>
+      </c>
+      <c r="J28" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>1</v>
       </c>
       <c r="B29" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="D29" s="1">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="E29" s="1">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="F29" s="1">
-        <v>170</v>
-      </c>
-      <c r="G29" s="6" t="s">
-        <v>36</v>
+        <v>50</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="H29" s="1">
         <v>6</v>
       </c>
       <c r="I29" s="1">
-        <v>0.13176360299985301</v>
+        <v>5.85</v>
+      </c>
+      <c r="J29" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:28" ht="17" x14ac:dyDescent="0.2">
@@ -2453,28 +2559,31 @@
         <v>2</v>
       </c>
       <c r="B30" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="D30" s="1">
-        <v>1506</v>
+        <v>86</v>
       </c>
       <c r="E30" s="1">
-        <v>1508</v>
+        <v>88</v>
       </c>
       <c r="F30" s="1">
-        <v>13820</v>
+        <v>841</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H30" s="1">
         <v>9</v>
       </c>
       <c r="I30" s="1">
-        <v>43.813711399998198</v>
+        <v>825.50512899900002</v>
+      </c>
+      <c r="J30" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:28" ht="17" x14ac:dyDescent="0.2">
@@ -2482,116 +2591,65 @@
         <v>3</v>
       </c>
       <c r="B31" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="D31" s="1">
-        <v>2494</v>
+        <v>306</v>
       </c>
       <c r="E31" s="1">
-        <v>2496</v>
+        <v>308</v>
       </c>
       <c r="F31" s="1">
-        <v>19532</v>
+        <v>2148</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H31" s="1">
         <v>12</v>
       </c>
       <c r="I31" s="1">
-        <v>72.079045512000405</v>
+        <v>2102.7407833749999</v>
+      </c>
+      <c r="J31" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="32" spans="1:28" ht="17" x14ac:dyDescent="0.2">
-      <c r="A32" s="1">
-        <v>1</v>
-      </c>
-      <c r="B32" s="1">
-        <v>10</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D32" s="1">
-        <v>11</v>
-      </c>
-      <c r="E32" s="1">
-        <v>13</v>
-      </c>
-      <c r="F32" s="1">
-        <v>50</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H32" s="1">
-        <v>6</v>
-      </c>
-      <c r="I32" s="1">
-        <v>5.85</v>
-      </c>
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
     </row>
     <row r="33" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A33" s="1">
-        <v>2</v>
-      </c>
-      <c r="B33" s="1">
-        <v>10</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D33" s="1">
-        <v>86</v>
-      </c>
-      <c r="E33" s="1">
-        <v>88</v>
-      </c>
-      <c r="F33" s="1">
-        <v>841</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H33" s="1">
-        <v>9</v>
-      </c>
-      <c r="I33" s="1">
-        <v>825.50512899900002</v>
-      </c>
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
     </row>
     <row r="34" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A34" s="1">
-        <v>3</v>
-      </c>
-      <c r="B34" s="1">
-        <v>10</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D34" s="1">
-        <v>306</v>
-      </c>
-      <c r="E34" s="1">
-        <v>308</v>
-      </c>
-      <c r="F34" s="1">
-        <v>2148</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H34" s="1">
-        <v>12</v>
-      </c>
-      <c r="I34" s="1">
-        <v>2102.7407833749999</v>
-      </c>
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
     </row>
     <row r="35" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
@@ -13186,40 +13244,12 @@
       <c r="H997" s="1"/>
       <c r="I997" s="1"/>
     </row>
-    <row r="998" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A998" s="1"/>
-      <c r="B998" s="1"/>
-      <c r="C998" s="1"/>
-      <c r="D998" s="1"/>
-      <c r="E998" s="1"/>
-      <c r="F998" s="1"/>
-      <c r="G998" s="1"/>
-      <c r="H998" s="1"/>
-      <c r="I998" s="1"/>
-    </row>
-    <row r="999" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A999" s="1"/>
-      <c r="B999" s="1"/>
-      <c r="C999" s="1"/>
-      <c r="D999" s="1"/>
-      <c r="E999" s="1"/>
-      <c r="F999" s="1"/>
-      <c r="G999" s="1"/>
-      <c r="H999" s="1"/>
-      <c r="I999" s="1"/>
-    </row>
-    <row r="1000" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1000" s="1"/>
-      <c r="B1000" s="1"/>
-      <c r="C1000" s="1"/>
-      <c r="D1000" s="1"/>
-      <c r="E1000" s="1"/>
-      <c r="F1000" s="1"/>
-      <c r="G1000" s="1"/>
-      <c r="H1000" s="1"/>
-      <c r="I1000" s="1"/>
-    </row>
   </sheetData>
+  <autoFilter ref="A1:I1">
+    <sortState ref="A2:I31">
+      <sortCondition ref="B1:B31"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>